--- a/Jogos_do_Dia/2023-07-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -142,15 +142,15 @@
     <t>Sweden Superettan</t>
   </si>
   <si>
+    <t>Estonia Meistriliiga</t>
+  </si>
+  <si>
     <t>Brazil Serie A</t>
   </si>
   <si>
     <t>Brazil Serie D</t>
   </si>
   <si>
-    <t>Estonia Meistriliiga</t>
-  </si>
-  <si>
     <t>Norway Eliteserien</t>
   </si>
   <si>
@@ -163,12 +163,12 @@
     <t>Chile Primera B</t>
   </si>
   <si>
+    <t>Egypt Egyptian Premier League</t>
+  </si>
+  <si>
     <t>Argentina Prim B Nacional</t>
   </si>
   <si>
-    <t>Egypt Egyptian Premier League</t>
-  </si>
-  <si>
     <t>Mexico Liga MX</t>
   </si>
   <si>
@@ -289,21 +289,21 @@
     <t>Iwaki</t>
   </si>
   <si>
+    <t>V-Varen Nagasaki</t>
+  </si>
+  <si>
+    <t>Fujieda MYFC</t>
+  </si>
+  <si>
+    <t>Machida Zelvia</t>
+  </si>
+  <si>
+    <t>Tochigi</t>
+  </si>
+  <si>
     <t>Blaublitz Akita</t>
   </si>
   <si>
-    <t>Fujieda MYFC</t>
-  </si>
-  <si>
-    <t>V-Varen Nagasaki</t>
-  </si>
-  <si>
-    <t>Machida Zelvia</t>
-  </si>
-  <si>
-    <t>Tochigi</t>
-  </si>
-  <si>
     <t>Gyeongnam</t>
   </si>
   <si>
@@ -319,15 +319,15 @@
     <t>ThespaKusatsu Gunma</t>
   </si>
   <si>
+    <t>JEF United</t>
+  </si>
+  <si>
+    <t>Tokushima Vortis</t>
+  </si>
+  <si>
     <t>Oita Trinita</t>
   </si>
   <si>
-    <t>JEF United</t>
-  </si>
-  <si>
-    <t>Tokushima Vortis</t>
-  </si>
-  <si>
     <t>Malmö FF</t>
   </si>
   <si>
@@ -337,16 +337,19 @@
     <t>Rampla Juniors</t>
   </si>
   <si>
+    <t>Moss</t>
+  </si>
+  <si>
+    <t>Brage</t>
+  </si>
+  <si>
+    <t>Åsane</t>
+  </si>
+  <si>
     <t>Fredrikstad</t>
   </si>
   <si>
-    <t>Moss</t>
-  </si>
-  <si>
-    <t>Åsane</t>
-  </si>
-  <si>
-    <t>Brage</t>
+    <t>Harju Jalgpallikool</t>
   </si>
   <si>
     <t>Santos</t>
@@ -355,54 +358,51 @@
     <t>CAP</t>
   </si>
   <si>
-    <t>Harju Jalgpallikool</t>
+    <t>Strømsgodset</t>
   </si>
   <si>
     <t>Sandefjord</t>
   </si>
   <si>
+    <t>Rosenborg</t>
+  </si>
+  <si>
     <t>Odd</t>
   </si>
   <si>
-    <t>Rosenborg</t>
-  </si>
-  <si>
-    <t>Strømsgodset</t>
+    <t>Skövde AIK</t>
   </si>
   <si>
     <t>Tromsø</t>
   </si>
   <si>
-    <t>Skövde AIK</t>
-  </si>
-  <si>
     <t>Mariehamn</t>
   </si>
   <si>
+    <t>Plaza Colonia</t>
+  </si>
+  <si>
     <t>Kalmar</t>
   </si>
   <si>
-    <t>Plaza Colonia</t>
-  </si>
-  <si>
     <t>Tallinna FC Levadia</t>
   </si>
   <si>
+    <t>Antofagasta</t>
+  </si>
+  <si>
     <t>Recoleta</t>
   </si>
   <si>
-    <t>Antofagasta</t>
-  </si>
-  <si>
     <t>Molde</t>
   </si>
   <si>
+    <t>Pharco</t>
+  </si>
+  <si>
     <t>Defensores Unidos</t>
   </si>
   <si>
-    <t>Pharco</t>
-  </si>
-  <si>
     <t>Pumas UNAM</t>
   </si>
   <si>
@@ -580,21 +580,21 @@
     <t>Mito Hollyhock</t>
   </si>
   <si>
+    <t>Renofa Yamaguchi</t>
+  </si>
+  <si>
+    <t>Ventforet Kofu</t>
+  </si>
+  <si>
+    <t>Tokyo Verdy</t>
+  </si>
+  <si>
+    <t>Vegalta Sendai</t>
+  </si>
+  <si>
     <t>Roasso Kumamoto</t>
   </si>
   <si>
-    <t>Ventforet Kofu</t>
-  </si>
-  <si>
-    <t>Renofa Yamaguchi</t>
-  </si>
-  <si>
-    <t>Tokyo Verdy</t>
-  </si>
-  <si>
-    <t>Vegalta Sendai</t>
-  </si>
-  <si>
     <t>Ansan Greeners</t>
   </si>
   <si>
@@ -610,15 +610,15 @@
     <t>Omiya Ardija</t>
   </si>
   <si>
+    <t>Zweigen Kanazawa</t>
+  </si>
+  <si>
+    <t>Fagiano Okayama</t>
+  </si>
+  <si>
     <t>Shimizu S-Pulse</t>
   </si>
   <si>
-    <t>Zweigen Kanazawa</t>
-  </si>
-  <si>
-    <t>Fagiano Okayama</t>
-  </si>
-  <si>
     <t>Mjällby</t>
   </si>
   <si>
@@ -628,16 +628,19 @@
     <t>Rentistas</t>
   </si>
   <si>
+    <t>Bryne</t>
+  </si>
+  <si>
+    <t>Örgryte</t>
+  </si>
+  <si>
+    <t>Skeid</t>
+  </si>
+  <si>
     <t>Kongsvinger</t>
   </si>
   <si>
-    <t>Bryne</t>
-  </si>
-  <si>
-    <t>Skeid</t>
-  </si>
-  <si>
-    <t>Örgryte</t>
+    <t>Tammeka</t>
   </si>
   <si>
     <t>Goiás</t>
@@ -646,52 +649,49 @@
     <t>Operário MT</t>
   </si>
   <si>
-    <t>Tammeka</t>
+    <t>Sarpsborg 08</t>
   </si>
   <si>
     <t>Stabæk</t>
   </si>
   <si>
+    <t>Lillestrøm</t>
+  </si>
+  <si>
     <t>FK Bodo - Glimt</t>
   </si>
   <si>
-    <t>Lillestrøm</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08</t>
+    <t>GAIS</t>
   </si>
   <si>
     <t>Vålerenga</t>
   </si>
   <si>
-    <t>GAIS</t>
-  </si>
-  <si>
     <t>Oulu</t>
   </si>
   <si>
+    <t>Deportivo Maldonado</t>
+  </si>
+  <si>
     <t>Elfsborg</t>
   </si>
   <si>
-    <t>Deportivo Maldonado</t>
-  </si>
-  <si>
     <t>Nõmme Kalju</t>
   </si>
   <si>
+    <t>Cobreloa</t>
+  </si>
+  <si>
     <t>Deportes Temuco</t>
   </si>
   <si>
-    <t>Cobreloa</t>
-  </si>
-  <si>
     <t>Brann</t>
   </si>
   <si>
+    <t>Al Masry</t>
+  </si>
+  <si>
     <t>Almirante Brown</t>
-  </si>
-  <si>
-    <t>Al Masry</t>
   </si>
   <si>
     <t>Mazatlán</t>
@@ -1360,13 +1360,13 @@
         <v>187</v>
       </c>
       <c r="G2">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H2">
-        <v>3.25</v>
+        <v>2.93</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2.69</v>
       </c>
       <c r="J2">
         <v>1.06</v>
@@ -1381,10 +1381,10 @@
         <v>3.1</v>
       </c>
       <c r="N2">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="O2">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="P2">
         <v>1.43</v>
@@ -1467,91 +1467,91 @@
         <v>188</v>
       </c>
       <c r="G3">
-        <v>2.7</v>
+        <v>1.55</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>3.43</v>
       </c>
       <c r="I3">
-        <v>2.55</v>
+        <v>5.13</v>
       </c>
       <c r="J3">
+        <v>1.05</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>1.3</v>
+      </c>
+      <c r="M3">
+        <v>3.3</v>
+      </c>
+      <c r="N3">
+        <v>1.8</v>
+      </c>
+      <c r="O3">
+        <v>1.8</v>
+      </c>
+      <c r="P3">
+        <v>1.4</v>
+      </c>
+      <c r="Q3">
+        <v>2.75</v>
+      </c>
+      <c r="R3">
+        <v>1.83</v>
+      </c>
+      <c r="S3">
+        <v>1.9</v>
+      </c>
+      <c r="T3">
+        <v>1.16</v>
+      </c>
+      <c r="U3">
+        <v>1.22</v>
+      </c>
+      <c r="V3">
+        <v>1.95</v>
+      </c>
+      <c r="W3">
+        <v>2.09</v>
+      </c>
+      <c r="X3">
+        <v>1.08</v>
+      </c>
+      <c r="Y3">
+        <v>1.4</v>
+      </c>
+      <c r="Z3">
         <v>1.1</v>
       </c>
-      <c r="K3">
-        <v>6.5</v>
-      </c>
-      <c r="L3">
-        <v>1.42</v>
-      </c>
-      <c r="M3">
-        <v>2.7</v>
-      </c>
-      <c r="N3">
-        <v>2.25</v>
-      </c>
-      <c r="O3">
-        <v>1.57</v>
-      </c>
-      <c r="P3">
-        <v>1.53</v>
-      </c>
-      <c r="Q3">
-        <v>2.37</v>
-      </c>
-      <c r="R3">
-        <v>1.95</v>
-      </c>
-      <c r="S3">
-        <v>1.8</v>
-      </c>
-      <c r="T3">
-        <v>1.4</v>
-      </c>
-      <c r="U3">
-        <v>1.3</v>
-      </c>
-      <c r="V3">
-        <v>1.36</v>
-      </c>
-      <c r="W3">
-        <v>1.18</v>
-      </c>
-      <c r="X3">
-        <v>1.55</v>
-      </c>
-      <c r="Y3">
-        <v>1.27</v>
-      </c>
-      <c r="Z3">
-        <v>1.56</v>
-      </c>
       <c r="AA3">
-        <v>2.83</v>
+        <v>2.5</v>
       </c>
       <c r="AB3">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="AC3">
         <v>5.5</v>
       </c>
       <c r="AD3">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AE3">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="AF3">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="AG3">
-        <v>1.85</v>
+        <v>2.13</v>
       </c>
       <c r="AH3">
-        <v>2.16</v>
+        <v>2.85</v>
       </c>
       <c r="AI3">
-        <v>2.85</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1574,13 +1574,13 @@
         <v>189</v>
       </c>
       <c r="G4">
-        <v>2.7</v>
+        <v>2.59</v>
       </c>
       <c r="H4">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="I4">
-        <v>2.38</v>
+        <v>2.47</v>
       </c>
       <c r="J4">
         <v>1.05</v>
@@ -1595,10 +1595,10 @@
         <v>3.75</v>
       </c>
       <c r="N4">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="O4">
-        <v>2.03</v>
+        <v>1.73</v>
       </c>
       <c r="P4">
         <v>1.4</v>
@@ -1681,91 +1681,91 @@
         <v>190</v>
       </c>
       <c r="G5">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="H5">
-        <v>3.5</v>
+        <v>2.93</v>
       </c>
       <c r="I5">
-        <v>4.33</v>
+        <v>2.69</v>
       </c>
       <c r="J5">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L5">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="M5">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="N5">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="O5">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="P5">
+        <v>1.53</v>
+      </c>
+      <c r="Q5">
+        <v>2.37</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1.75</v>
+      </c>
+      <c r="T5">
+        <v>1.22</v>
+      </c>
+      <c r="U5">
+        <v>1.28</v>
+      </c>
+      <c r="V5">
+        <v>1.68</v>
+      </c>
+      <c r="W5">
+        <v>2.42</v>
+      </c>
+      <c r="X5">
+        <v>2.25</v>
+      </c>
+      <c r="Y5">
+        <v>1.55</v>
+      </c>
+      <c r="Z5">
         <v>1.4</v>
       </c>
-      <c r="Q5">
-        <v>2.75</v>
-      </c>
-      <c r="R5">
-        <v>1.83</v>
-      </c>
-      <c r="S5">
-        <v>1.9</v>
-      </c>
-      <c r="T5">
-        <v>1.16</v>
-      </c>
-      <c r="U5">
-        <v>1.22</v>
-      </c>
-      <c r="V5">
-        <v>1.95</v>
-      </c>
-      <c r="W5">
-        <v>2.09</v>
-      </c>
-      <c r="X5">
-        <v>1.08</v>
-      </c>
-      <c r="Y5">
-        <v>1.4</v>
-      </c>
-      <c r="Z5">
-        <v>1.1</v>
-      </c>
       <c r="AA5">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="AB5">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="AC5">
-        <v>5.5</v>
+        <v>4.95</v>
       </c>
       <c r="AD5">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AE5">
-        <v>1.37</v>
+        <v>1.59</v>
       </c>
       <c r="AF5">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AG5">
-        <v>2.13</v>
+        <v>2.77</v>
       </c>
       <c r="AH5">
-        <v>2.85</v>
+        <v>3.8</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1788,31 +1788,31 @@
         <v>191</v>
       </c>
       <c r="G6">
-        <v>2.15</v>
+        <v>2.46</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2.93</v>
       </c>
       <c r="I6">
-        <v>3.4</v>
+        <v>2.61</v>
       </c>
       <c r="J6">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K6">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L6">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="M6">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="N6">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="O6">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P6">
         <v>1.53</v>
@@ -1827,52 +1827,52 @@
         <v>1.75</v>
       </c>
       <c r="T6">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="U6">
         <v>1.28</v>
       </c>
       <c r="V6">
-        <v>1.68</v>
+        <v>1.3</v>
       </c>
       <c r="W6">
-        <v>2.42</v>
+        <v>1.73</v>
       </c>
       <c r="X6">
-        <v>2.25</v>
+        <v>1.33</v>
       </c>
       <c r="Y6">
-        <v>1.55</v>
+        <v>1.28</v>
       </c>
       <c r="Z6">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="AA6">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="AB6">
-        <v>1.86</v>
+        <v>2.14</v>
       </c>
       <c r="AC6">
-        <v>4.95</v>
+        <v>8.4</v>
       </c>
       <c r="AD6">
-        <v>2.2</v>
+        <v>1.97</v>
       </c>
       <c r="AE6">
-        <v>1.59</v>
+        <v>1.32</v>
       </c>
       <c r="AF6">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AG6">
-        <v>2.77</v>
+        <v>2.1</v>
       </c>
       <c r="AH6">
-        <v>3.8</v>
+        <v>2.85</v>
       </c>
       <c r="AI6">
-        <v>5.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1895,13 +1895,13 @@
         <v>192</v>
       </c>
       <c r="G7">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2.83</v>
       </c>
       <c r="I7">
-        <v>2.3</v>
+        <v>2.41</v>
       </c>
       <c r="J7">
         <v>1.1</v>
@@ -1910,16 +1910,16 @@
         <v>6.5</v>
       </c>
       <c r="L7">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="M7">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N7">
-        <v>2.56</v>
+        <v>2.25</v>
       </c>
       <c r="O7">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="P7">
         <v>1.53</v>
@@ -1928,58 +1928,58 @@
         <v>2.37</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U7">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="V7">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="W7">
-        <v>1.73</v>
+        <v>1.18</v>
       </c>
       <c r="X7">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="Y7">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="Z7">
-        <v>1.32</v>
+        <v>1.56</v>
       </c>
       <c r="AA7">
-        <v>2.6</v>
+        <v>2.83</v>
       </c>
       <c r="AB7">
-        <v>2.14</v>
+        <v>1.9</v>
       </c>
       <c r="AC7">
-        <v>8.4</v>
+        <v>5.5</v>
       </c>
       <c r="AD7">
-        <v>1.97</v>
+        <v>2.2</v>
       </c>
       <c r="AE7">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AF7">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="AG7">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AH7">
+        <v>2.16</v>
+      </c>
+      <c r="AI7">
         <v>2.85</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -2002,13 +2002,13 @@
         <v>193</v>
       </c>
       <c r="G8">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H8">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I8">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J8">
         <v>1.03</v>
@@ -2023,10 +2023,10 @@
         <v>3.8</v>
       </c>
       <c r="N8">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P8">
         <v>1.36</v>
@@ -2109,13 +2109,13 @@
         <v>194</v>
       </c>
       <c r="G9">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I9">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J9">
         <v>1.04</v>
@@ -2130,10 +2130,10 @@
         <v>2.78</v>
       </c>
       <c r="N9">
-        <v>1.94</v>
+        <v>2.25</v>
       </c>
       <c r="O9">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="P9">
         <v>1.5</v>
@@ -2216,13 +2216,13 @@
         <v>195</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="H10">
-        <v>3.25</v>
+        <v>3.59</v>
       </c>
       <c r="I10">
-        <v>3.6</v>
+        <v>3.74</v>
       </c>
       <c r="J10">
         <v>1.03</v>
@@ -2237,10 +2237,10 @@
         <v>3.5</v>
       </c>
       <c r="N10">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="O10">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="P10">
         <v>1.36</v>
@@ -2323,13 +2323,13 @@
         <v>196</v>
       </c>
       <c r="G11">
-        <v>3.1</v>
+        <v>2.56</v>
       </c>
       <c r="H11">
-        <v>3.4</v>
+        <v>3.02</v>
       </c>
       <c r="I11">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="J11">
         <v>1.05</v>
@@ -2344,10 +2344,10 @@
         <v>3.75</v>
       </c>
       <c r="N11">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O11">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="P11">
         <v>1.4</v>
@@ -2430,13 +2430,13 @@
         <v>197</v>
       </c>
       <c r="G12">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="H12">
         <v>3.2</v>
       </c>
       <c r="I12">
-        <v>2.75</v>
+        <v>3.69</v>
       </c>
       <c r="J12">
         <v>1.07</v>
@@ -2451,7 +2451,7 @@
         <v>3.1</v>
       </c>
       <c r="N12">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O12">
         <v>1.8</v>
@@ -2537,91 +2537,91 @@
         <v>198</v>
       </c>
       <c r="G13">
-        <v>3.8</v>
+        <v>1.79</v>
       </c>
       <c r="H13">
-        <v>3.4</v>
+        <v>3.11</v>
       </c>
       <c r="I13">
-        <v>1.91</v>
+        <v>4.02</v>
       </c>
       <c r="J13">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="K13">
-        <v>14</v>
+        <v>7.5</v>
       </c>
       <c r="L13">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="M13">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O13">
+        <v>1.67</v>
+      </c>
+      <c r="P13">
+        <v>1.41</v>
+      </c>
+      <c r="Q13">
+        <v>2.7</v>
+      </c>
+      <c r="R13">
         <v>1.9</v>
       </c>
-      <c r="P13">
-        <v>1.4</v>
-      </c>
-      <c r="Q13">
-        <v>2.75</v>
-      </c>
-      <c r="R13">
-        <v>1.73</v>
-      </c>
       <c r="S13">
+        <v>1.85</v>
+      </c>
+      <c r="T13">
+        <v>1.16</v>
+      </c>
+      <c r="U13">
+        <v>1.22</v>
+      </c>
+      <c r="V13">
         <v>2</v>
       </c>
-      <c r="T13">
-        <v>1.88</v>
-      </c>
-      <c r="U13">
-        <v>1.27</v>
-      </c>
-      <c r="V13">
+      <c r="W13">
+        <v>1.58</v>
+      </c>
+      <c r="X13">
+        <v>0.54</v>
+      </c>
+      <c r="Y13">
+        <v>1.62</v>
+      </c>
+      <c r="Z13">
+        <v>1.2</v>
+      </c>
+      <c r="AA13">
+        <v>2.82</v>
+      </c>
+      <c r="AB13">
+        <v>1.36</v>
+      </c>
+      <c r="AC13">
+        <v>6.25</v>
+      </c>
+      <c r="AD13">
+        <v>3.55</v>
+      </c>
+      <c r="AE13">
         <v>1.24</v>
       </c>
-      <c r="W13">
-        <v>2.17</v>
-      </c>
-      <c r="X13">
-        <v>1.31</v>
-      </c>
-      <c r="Y13">
-        <v>1.37</v>
-      </c>
-      <c r="Z13">
-        <v>1.76</v>
-      </c>
-      <c r="AA13">
-        <v>3.13</v>
-      </c>
-      <c r="AB13">
-        <v>2.1</v>
-      </c>
-      <c r="AC13">
-        <v>5.25</v>
-      </c>
-      <c r="AD13">
-        <v>1.95</v>
-      </c>
-      <c r="AE13">
-        <v>1.29</v>
-      </c>
       <c r="AF13">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="AG13">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AH13">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="AI13">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2644,91 +2644,91 @@
         <v>199</v>
       </c>
       <c r="G14">
-        <v>1.73</v>
+        <v>2.65</v>
       </c>
       <c r="H14">
-        <v>3.5</v>
+        <v>3.04</v>
       </c>
       <c r="I14">
-        <v>4.33</v>
+        <v>2.36</v>
       </c>
       <c r="J14">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K14">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="L14">
+        <v>1.38</v>
+      </c>
+      <c r="M14">
+        <v>2.75</v>
+      </c>
+      <c r="N14">
+        <v>1.9</v>
+      </c>
+      <c r="O14">
+        <v>1.71</v>
+      </c>
+      <c r="P14">
+        <v>1.5</v>
+      </c>
+      <c r="Q14">
+        <v>2.5</v>
+      </c>
+      <c r="R14">
+        <v>1.91</v>
+      </c>
+      <c r="S14">
+        <v>1.8</v>
+      </c>
+      <c r="T14">
+        <v>1.51</v>
+      </c>
+      <c r="U14">
+        <v>1.34</v>
+      </c>
+      <c r="V14">
+        <v>1.39</v>
+      </c>
+      <c r="W14">
+        <v>1.17</v>
+      </c>
+      <c r="X14">
+        <v>1.18</v>
+      </c>
+      <c r="Y14">
+        <v>1.16</v>
+      </c>
+      <c r="Z14">
         <v>1.33</v>
       </c>
-      <c r="M14">
-        <v>3.1</v>
-      </c>
-      <c r="N14">
-        <v>1.98</v>
-      </c>
-      <c r="O14">
-        <v>1.88</v>
-      </c>
-      <c r="P14">
-        <v>1.41</v>
-      </c>
-      <c r="Q14">
-        <v>2.7</v>
-      </c>
-      <c r="R14">
+      <c r="AA14">
+        <v>2.49</v>
+      </c>
+      <c r="AB14">
+        <v>1.76</v>
+      </c>
+      <c r="AC14">
+        <v>5.5</v>
+      </c>
+      <c r="AD14">
+        <v>2.3</v>
+      </c>
+      <c r="AE14">
+        <v>1.3</v>
+      </c>
+      <c r="AF14">
+        <v>1.62</v>
+      </c>
+      <c r="AG14">
         <v>1.9</v>
       </c>
-      <c r="S14">
-        <v>1.85</v>
-      </c>
-      <c r="T14">
-        <v>1.16</v>
-      </c>
-      <c r="U14">
-        <v>1.22</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
-      <c r="W14">
-        <v>1.58</v>
-      </c>
-      <c r="X14">
-        <v>0.54</v>
-      </c>
-      <c r="Y14">
-        <v>1.62</v>
-      </c>
-      <c r="Z14">
-        <v>1.2</v>
-      </c>
-      <c r="AA14">
-        <v>2.82</v>
-      </c>
-      <c r="AB14">
-        <v>1.36</v>
-      </c>
-      <c r="AC14">
-        <v>6.25</v>
-      </c>
-      <c r="AD14">
-        <v>3.55</v>
-      </c>
-      <c r="AE14">
-        <v>1.24</v>
-      </c>
-      <c r="AF14">
-        <v>1.52</v>
-      </c>
-      <c r="AG14">
-        <v>1.85</v>
-      </c>
       <c r="AH14">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="AI14">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2751,91 +2751,91 @@
         <v>200</v>
       </c>
       <c r="G15">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="I15">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="J15">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K15">
-        <v>7.4</v>
+        <v>14</v>
       </c>
       <c r="L15">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="M15">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N15">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="O15">
         <v>1.6</v>
       </c>
       <c r="P15">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q15">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R15">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>1.51</v>
+        <v>1.88</v>
       </c>
       <c r="U15">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="V15">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="W15">
-        <v>1.17</v>
+        <v>2.17</v>
       </c>
       <c r="X15">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="Y15">
-        <v>1.16</v>
+        <v>1.37</v>
       </c>
       <c r="Z15">
-        <v>1.33</v>
+        <v>1.76</v>
       </c>
       <c r="AA15">
-        <v>2.49</v>
+        <v>3.13</v>
       </c>
       <c r="AB15">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="AC15">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="AD15">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="AE15">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AF15">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="AG15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AH15">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="AI15">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2858,13 +2858,13 @@
         <v>201</v>
       </c>
       <c r="G16">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="H16">
-        <v>5.5</v>
+        <v>5.18</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J16">
         <v>1.03</v>
@@ -2965,13 +2965,13 @@
         <v>202</v>
       </c>
       <c r="G17">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="H17">
-        <v>3.4</v>
+        <v>3.18</v>
       </c>
       <c r="I17">
-        <v>2.5</v>
+        <v>2.11</v>
       </c>
       <c r="J17">
         <v>1.03</v>
@@ -2986,10 +2986,10 @@
         <v>3.8</v>
       </c>
       <c r="N17">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="O17">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="P17">
         <v>1.33</v>
@@ -3072,13 +3072,13 @@
         <v>203</v>
       </c>
       <c r="G18">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="H18">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J18">
         <v>1.09</v>
@@ -3093,10 +3093,10 @@
         <v>2.6</v>
       </c>
       <c r="N18">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O18">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P18">
         <v>1.56</v>
@@ -3179,96 +3179,96 @@
         <v>204</v>
       </c>
       <c r="G19">
-        <v>2.25</v>
+        <v>1.78</v>
       </c>
       <c r="H19">
-        <v>3.3</v>
+        <v>3.23</v>
       </c>
       <c r="I19">
-        <v>3.2</v>
+        <v>3.47</v>
       </c>
       <c r="J19">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K19">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="L19">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="M19">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="N19">
-        <v>2.03</v>
+        <v>1.69</v>
       </c>
       <c r="O19">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P19">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q19">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S19">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="U19">
         <v>1.25</v>
       </c>
       <c r="V19">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W19">
-        <v>2.14</v>
+        <v>1.86</v>
       </c>
       <c r="X19">
-        <v>1.71</v>
+        <v>0.67</v>
       </c>
       <c r="Y19">
-        <v>1.44</v>
+        <v>1.74</v>
       </c>
       <c r="Z19">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="AA19">
-        <v>2.61</v>
+        <v>3.1</v>
       </c>
       <c r="AB19">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AC19">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="AD19">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AE19">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AF19">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AG19">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="AH19">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="AI19">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2">
         <v>45116</v>
@@ -3277,7 +3277,7 @@
         <v>66</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
         <v>108</v>
@@ -3286,91 +3286,91 @@
         <v>205</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="H20">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="I20">
-        <v>3.6</v>
+        <v>2.94</v>
       </c>
       <c r="J20">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K20">
         <v>13</v>
       </c>
       <c r="L20">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M20">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="N20">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O20">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="P20">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R20">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T20">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U20">
         <v>1.25</v>
       </c>
       <c r="V20">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="W20">
-        <v>1.86</v>
+        <v>2.17</v>
       </c>
       <c r="X20">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="Y20">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="Z20">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="AA20">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="AB20">
-        <v>1.54</v>
+        <v>2</v>
       </c>
       <c r="AC20">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="AD20">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="AE20">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AF20">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="AG20">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AH20">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="AI20">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -3393,13 +3393,13 @@
         <v>206</v>
       </c>
       <c r="G21">
-        <v>1.91</v>
+        <v>2.21</v>
       </c>
       <c r="H21">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I21">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="J21">
         <v>1.01</v>
@@ -3414,10 +3414,10 @@
         <v>5.75</v>
       </c>
       <c r="N21">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="O21">
-        <v>2.65</v>
+        <v>2.2</v>
       </c>
       <c r="P21">
         <v>1.25</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2">
         <v>45116</v>
@@ -3491,7 +3491,7 @@
         <v>66</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
         <v>110</v>
@@ -3500,31 +3500,31 @@
         <v>207</v>
       </c>
       <c r="G22">
-        <v>2.1</v>
+        <v>2.21</v>
       </c>
       <c r="H22">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>2.69</v>
       </c>
       <c r="J22">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K22">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="L22">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="M22">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="N22">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="O22">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="P22">
         <v>1.4</v>
@@ -3533,58 +3533,58 @@
         <v>2.75</v>
       </c>
       <c r="R22">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="T22">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="U22">
         <v>1.25</v>
       </c>
       <c r="V22">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W22">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="X22">
-        <v>0.83</v>
+        <v>1.71</v>
       </c>
       <c r="Y22">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="Z22">
+        <v>1.17</v>
+      </c>
+      <c r="AA22">
+        <v>2.61</v>
+      </c>
+      <c r="AB22">
+        <v>1.58</v>
+      </c>
+      <c r="AC22">
+        <v>6.25</v>
+      </c>
+      <c r="AD22">
+        <v>2.6</v>
+      </c>
+      <c r="AE22">
+        <v>1.17</v>
+      </c>
+      <c r="AF22">
+        <v>1.3</v>
+      </c>
+      <c r="AG22">
         <v>1.56</v>
       </c>
-      <c r="AA22">
-        <v>3.21</v>
-      </c>
-      <c r="AB22">
-        <v>2</v>
-      </c>
-      <c r="AC22">
-        <v>8</v>
-      </c>
-      <c r="AD22">
-        <v>2</v>
-      </c>
-      <c r="AE22">
-        <v>1.2</v>
-      </c>
-      <c r="AF22">
-        <v>1.38</v>
-      </c>
-      <c r="AG22">
-        <v>1.67</v>
-      </c>
       <c r="AH22">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="AI22">
-        <v>2.85</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3598,7 +3598,7 @@
         <v>67</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
         <v>111</v>
@@ -3607,91 +3607,91 @@
         <v>208</v>
       </c>
       <c r="G23">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I23">
-        <v>4.33</v>
+        <v>2.16</v>
       </c>
       <c r="J23">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="K23">
-        <v>8.25</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L23">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="M23">
-        <v>2.45</v>
+        <v>3.34</v>
       </c>
       <c r="N23">
-        <v>2.41</v>
+        <v>1.85</v>
       </c>
       <c r="O23">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="P23">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="Q23">
-        <v>2.38</v>
+        <v>2.85</v>
       </c>
       <c r="R23">
-        <v>2.2</v>
+        <v>1.68</v>
       </c>
       <c r="S23">
-        <v>1.62</v>
+        <v>2.13</v>
       </c>
       <c r="T23">
-        <v>1.22</v>
+        <v>1.58</v>
       </c>
       <c r="U23">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="V23">
-        <v>1.83</v>
+        <v>1.35</v>
       </c>
       <c r="W23">
-        <v>1.29</v>
+        <v>0.5</v>
       </c>
       <c r="X23">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="Y23">
-        <v>1.55</v>
+        <v>1.24</v>
       </c>
       <c r="Z23">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AA23">
-        <v>2.84</v>
+        <v>2.6</v>
       </c>
       <c r="AB23">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AH23">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="AI23">
-        <v>2.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3705,7 +3705,7 @@
         <v>67</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
         <v>112</v>
@@ -3714,91 +3714,91 @@
         <v>209</v>
       </c>
       <c r="G24">
-        <v>1.54</v>
+        <v>1.85</v>
       </c>
       <c r="H24">
-        <v>3.47</v>
+        <v>3.5</v>
       </c>
       <c r="I24">
-        <v>6.55</v>
+        <v>4.5</v>
       </c>
       <c r="J24">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K24">
-        <v>7.85</v>
+        <v>8.25</v>
       </c>
       <c r="L24">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="M24">
-        <v>2.61</v>
+        <v>2.45</v>
       </c>
       <c r="N24">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="O24">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P24">
+        <v>1.53</v>
+      </c>
+      <c r="Q24">
+        <v>2.38</v>
+      </c>
+      <c r="R24">
+        <v>2.2</v>
+      </c>
+      <c r="S24">
+        <v>1.62</v>
+      </c>
+      <c r="T24">
+        <v>1.22</v>
+      </c>
+      <c r="U24">
+        <v>1.33</v>
+      </c>
+      <c r="V24">
+        <v>1.83</v>
+      </c>
+      <c r="W24">
+        <v>1.29</v>
+      </c>
+      <c r="X24">
+        <v>0.57</v>
+      </c>
+      <c r="Y24">
+        <v>1.55</v>
+      </c>
+      <c r="Z24">
+        <v>1.29</v>
+      </c>
+      <c r="AA24">
+        <v>2.84</v>
+      </c>
+      <c r="AB24">
         <v>1.5</v>
       </c>
-      <c r="Q24">
-        <v>2.4</v>
-      </c>
-      <c r="R24">
-        <v>2.4</v>
-      </c>
-      <c r="S24">
-        <v>1.52</v>
-      </c>
-      <c r="T24">
-        <v>1.12</v>
-      </c>
-      <c r="U24">
-        <v>1.27</v>
-      </c>
-      <c r="V24">
-        <v>2.3</v>
-      </c>
-      <c r="W24">
-        <v>2.2</v>
-      </c>
-      <c r="X24">
-        <v>0.4</v>
-      </c>
-      <c r="Y24">
-        <v>1.52</v>
-      </c>
-      <c r="Z24">
-        <v>1.35</v>
-      </c>
-      <c r="AA24">
-        <v>2.87</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
       <c r="AC24">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3812,7 +3812,7 @@
         <v>67</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
         <v>113</v>
@@ -3821,67 +3821,67 @@
         <v>210</v>
       </c>
       <c r="G25">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="H25">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I25">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="J25">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="K25">
-        <v>9.300000000000001</v>
+        <v>7.85</v>
       </c>
       <c r="L25">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="M25">
-        <v>3.34</v>
+        <v>2.61</v>
       </c>
       <c r="N25">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="O25">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="P25">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="Q25">
-        <v>2.85</v>
+        <v>2.4</v>
       </c>
       <c r="R25">
-        <v>1.68</v>
+        <v>2.45</v>
       </c>
       <c r="S25">
-        <v>2.13</v>
+        <v>1.48</v>
       </c>
       <c r="T25">
-        <v>1.58</v>
+        <v>1.12</v>
       </c>
       <c r="U25">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="V25">
+        <v>2.3</v>
+      </c>
+      <c r="W25">
+        <v>2.2</v>
+      </c>
+      <c r="X25">
+        <v>0.4</v>
+      </c>
+      <c r="Y25">
+        <v>1.52</v>
+      </c>
+      <c r="Z25">
         <v>1.35</v>
       </c>
-      <c r="W25">
-        <v>0.5</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25">
-        <v>1.24</v>
-      </c>
-      <c r="Z25">
-        <v>1.36</v>
-      </c>
       <c r="AA25">
-        <v>2.6</v>
+        <v>2.87</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -3928,91 +3928,91 @@
         <v>211</v>
       </c>
       <c r="G26">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="H26">
-        <v>3.3</v>
+        <v>3.21</v>
       </c>
       <c r="I26">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="J26">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K26">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L26">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="M26">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N26">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="O26">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="P26">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="R26">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="S26">
+        <v>2.63</v>
+      </c>
+      <c r="T26">
+        <v>1.6</v>
+      </c>
+      <c r="U26">
+        <v>1.25</v>
+      </c>
+      <c r="V26">
+        <v>1.39</v>
+      </c>
+      <c r="W26">
+        <v>1.8</v>
+      </c>
+      <c r="X26">
+        <v>1.83</v>
+      </c>
+      <c r="Y26">
+        <v>1.84</v>
+      </c>
+      <c r="Z26">
+        <v>1.91</v>
+      </c>
+      <c r="AA26">
+        <v>3.75</v>
+      </c>
+      <c r="AB26">
         <v>2.1</v>
-      </c>
-      <c r="T26">
-        <v>1.4</v>
-      </c>
-      <c r="U26">
-        <v>1.29</v>
-      </c>
-      <c r="V26">
-        <v>1.51</v>
-      </c>
-      <c r="W26">
-        <v>1.75</v>
-      </c>
-      <c r="X26">
-        <v>0.6</v>
-      </c>
-      <c r="Y26">
-        <v>1.73</v>
-      </c>
-      <c r="Z26">
-        <v>0.99</v>
-      </c>
-      <c r="AA26">
-        <v>2.72</v>
-      </c>
-      <c r="AB26">
-        <v>1.8</v>
       </c>
       <c r="AC26">
         <v>8.5</v>
       </c>
       <c r="AD26">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="AE26">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AF26">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AG26">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AH26">
-        <v>1.96</v>
+        <v>1.67</v>
       </c>
       <c r="AI26">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -4035,91 +4035,91 @@
         <v>212</v>
       </c>
       <c r="G27">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="H27">
-        <v>4.5</v>
+        <v>2.96</v>
       </c>
       <c r="I27">
-        <v>1.53</v>
+        <v>2.33</v>
       </c>
       <c r="J27">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K27">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L27">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="M27">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="N27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O27">
-        <v>2.41</v>
+        <v>1.85</v>
       </c>
       <c r="P27">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="Q27">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="R27">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S27">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T27">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="U27">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="V27">
-        <v>1.14</v>
+        <v>1.51</v>
       </c>
       <c r="W27">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="X27">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="Y27">
-        <v>1.3</v>
+        <v>1.73</v>
       </c>
       <c r="Z27">
-        <v>1.97</v>
+        <v>0.99</v>
       </c>
       <c r="AA27">
-        <v>3.27</v>
+        <v>2.72</v>
       </c>
       <c r="AB27">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="AC27">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD27">
-        <v>1.33</v>
+        <v>2.3</v>
       </c>
       <c r="AE27">
         <v>1.17</v>
       </c>
       <c r="AF27">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AG27">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="AH27">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="AI27">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -4142,13 +4142,13 @@
         <v>213</v>
       </c>
       <c r="G28">
-        <v>2.15</v>
+        <v>1.97</v>
       </c>
       <c r="H28">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I28">
-        <v>3.25</v>
+        <v>3.03</v>
       </c>
       <c r="J28">
         <v>1.03</v>
@@ -4163,10 +4163,10 @@
         <v>3.5</v>
       </c>
       <c r="N28">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="O28">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="P28">
         <v>1.36</v>
@@ -4249,31 +4249,31 @@
         <v>214</v>
       </c>
       <c r="G29">
-        <v>2.9</v>
+        <v>4.64</v>
       </c>
       <c r="H29">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
       <c r="I29">
-        <v>2.25</v>
+        <v>1.46</v>
       </c>
       <c r="J29">
         <v>1.01</v>
       </c>
       <c r="K29">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L29">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="M29">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="N29">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="O29">
-        <v>2.59</v>
+        <v>2.29</v>
       </c>
       <c r="P29">
         <v>1.25</v>
@@ -4282,63 +4282,63 @@
         <v>3.75</v>
       </c>
       <c r="R29">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="S29">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="T29">
+        <v>2.4</v>
+      </c>
+      <c r="U29">
+        <v>1.2</v>
+      </c>
+      <c r="V29">
+        <v>1.14</v>
+      </c>
+      <c r="W29">
         <v>1.6</v>
       </c>
-      <c r="U29">
-        <v>1.25</v>
-      </c>
-      <c r="V29">
-        <v>1.39</v>
-      </c>
-      <c r="W29">
-        <v>1.8</v>
-      </c>
       <c r="X29">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="Y29">
-        <v>1.84</v>
+        <v>1.3</v>
       </c>
       <c r="Z29">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="AA29">
-        <v>3.75</v>
+        <v>3.27</v>
       </c>
       <c r="AB29">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="AC29">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD29">
-        <v>1.91</v>
+        <v>1.33</v>
       </c>
       <c r="AE29">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AF29">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AG29">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="AH29">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="AI29">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2">
         <v>45116</v>
@@ -4356,37 +4356,37 @@
         <v>215</v>
       </c>
       <c r="G30">
-        <v>2.4</v>
+        <v>4.48</v>
       </c>
       <c r="H30">
-        <v>3.3</v>
+        <v>3.84</v>
       </c>
       <c r="I30">
-        <v>2.88</v>
+        <v>1.55</v>
       </c>
       <c r="J30">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K30">
-        <v>9.75</v>
+        <v>14</v>
       </c>
       <c r="L30">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="M30">
-        <v>3.15</v>
+        <v>4.05</v>
       </c>
       <c r="N30">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="O30">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="P30">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="Q30">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="R30">
         <v>1.8</v>
@@ -4395,57 +4395,57 @@
         <v>1.95</v>
       </c>
       <c r="T30">
-        <v>1.36</v>
+        <v>2.45</v>
       </c>
       <c r="U30">
+        <v>1.18</v>
+      </c>
+      <c r="V30">
+        <v>1.14</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>1.83</v>
+      </c>
+      <c r="Y30">
+        <v>1.55</v>
+      </c>
+      <c r="Z30">
+        <v>1.93</v>
+      </c>
+      <c r="AA30">
+        <v>3.48</v>
+      </c>
+      <c r="AB30">
+        <v>4.14</v>
+      </c>
+      <c r="AC30">
+        <v>10</v>
+      </c>
+      <c r="AD30">
         <v>1.3</v>
       </c>
-      <c r="V30">
-        <v>1.57</v>
-      </c>
-      <c r="W30">
-        <v>1.67</v>
-      </c>
-      <c r="X30">
-        <v>1.4</v>
-      </c>
-      <c r="Y30">
-        <v>1.33</v>
-      </c>
-      <c r="Z30">
-        <v>1.41</v>
-      </c>
-      <c r="AA30">
-        <v>2.74</v>
-      </c>
-      <c r="AB30">
-        <v>2.1</v>
-      </c>
-      <c r="AC30">
-        <v>8</v>
-      </c>
-      <c r="AD30">
-        <v>1.91</v>
-      </c>
       <c r="AE30">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="AG30">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="AH30">
-        <v>2.17</v>
+        <v>1.74</v>
       </c>
       <c r="AI30">
-        <v>2.9</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2">
         <v>45116</v>
@@ -4463,37 +4463,37 @@
         <v>216</v>
       </c>
       <c r="G31">
-        <v>4.33</v>
+        <v>2.35</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>2.96</v>
       </c>
       <c r="I31">
-        <v>1.57</v>
+        <v>2.52</v>
       </c>
       <c r="J31">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K31">
-        <v>14</v>
+        <v>9.75</v>
       </c>
       <c r="L31">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="M31">
-        <v>4.05</v>
+        <v>3.15</v>
       </c>
       <c r="N31">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="O31">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="P31">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="Q31">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="R31">
         <v>1.8</v>
@@ -4502,52 +4502,52 @@
         <v>1.95</v>
       </c>
       <c r="T31">
-        <v>2.45</v>
+        <v>1.36</v>
       </c>
       <c r="U31">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="V31">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="X31">
-        <v>1.83</v>
+        <v>1.4</v>
       </c>
       <c r="Y31">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="Z31">
-        <v>1.93</v>
+        <v>1.41</v>
       </c>
       <c r="AA31">
-        <v>3.48</v>
+        <v>2.74</v>
       </c>
       <c r="AB31">
-        <v>4.14</v>
+        <v>2.1</v>
       </c>
       <c r="AC31">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD31">
-        <v>1.3</v>
+        <v>1.91</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF31">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="AG31">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="AH31">
-        <v>1.74</v>
+        <v>2.17</v>
       </c>
       <c r="AI31">
-        <v>2.23</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -4570,13 +4570,13 @@
         <v>217</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>2.58</v>
       </c>
       <c r="H32">
-        <v>3.2</v>
+        <v>2.87</v>
       </c>
       <c r="I32">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="J32">
         <v>1.06</v>
@@ -4591,10 +4591,10 @@
         <v>3.42</v>
       </c>
       <c r="N32">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="O32">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="P32">
         <v>1.4</v>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2">
         <v>45116</v>
@@ -4668,7 +4668,7 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
         <v>121</v>
@@ -4677,96 +4677,96 @@
         <v>218</v>
       </c>
       <c r="G33">
-        <v>3.3</v>
+        <v>2.36</v>
       </c>
       <c r="H33">
-        <v>3.3</v>
+        <v>2.91</v>
       </c>
       <c r="I33">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="J33">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K33">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L33">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="M33">
-        <v>3.88</v>
+        <v>2.75</v>
       </c>
       <c r="N33">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O33">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="P33">
+        <v>1.5</v>
+      </c>
+      <c r="Q33">
+        <v>2.5</v>
+      </c>
+      <c r="R33">
+        <v>1.91</v>
+      </c>
+      <c r="S33">
+        <v>1.8</v>
+      </c>
+      <c r="T33">
+        <v>1.47</v>
+      </c>
+      <c r="U33">
+        <v>1.32</v>
+      </c>
+      <c r="V33">
+        <v>1.46</v>
+      </c>
+      <c r="W33">
+        <v>1.3</v>
+      </c>
+      <c r="X33">
+        <v>0.73</v>
+      </c>
+      <c r="Y33">
         <v>1.36</v>
       </c>
-      <c r="Q33">
-        <v>3</v>
-      </c>
-      <c r="R33">
-        <v>1.67</v>
-      </c>
-      <c r="S33">
-        <v>2.1</v>
-      </c>
-      <c r="T33">
-        <v>1.67</v>
-      </c>
-      <c r="U33">
-        <v>1.3</v>
-      </c>
-      <c r="V33">
-        <v>1.25</v>
-      </c>
-      <c r="W33">
-        <v>2.17</v>
-      </c>
-      <c r="X33">
-        <v>2.67</v>
-      </c>
-      <c r="Y33">
-        <v>1.42</v>
-      </c>
       <c r="Z33">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="AA33">
-        <v>3.04</v>
+        <v>2.79</v>
       </c>
       <c r="AB33">
-        <v>2.39</v>
+        <v>2.05</v>
       </c>
       <c r="AC33">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD33">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="AE33">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="AF33">
-        <v>1.26</v>
+        <v>1.52</v>
       </c>
       <c r="AG33">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="AH33">
-        <v>1.95</v>
+        <v>2.27</v>
       </c>
       <c r="AI33">
-        <v>2.37</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
         <v>45116</v>
@@ -4775,7 +4775,7 @@
         <v>69</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
         <v>122</v>
@@ -4784,96 +4784,96 @@
         <v>219</v>
       </c>
       <c r="G34">
-        <v>2.7</v>
+        <v>3.21</v>
       </c>
       <c r="H34">
-        <v>3.2</v>
+        <v>3.18</v>
       </c>
       <c r="I34">
-        <v>2.5</v>
+        <v>1.98</v>
       </c>
       <c r="J34">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K34">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L34">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="M34">
-        <v>2.75</v>
+        <v>3.88</v>
       </c>
       <c r="N34">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="O34">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="P34">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="Q34">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R34">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="S34">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T34">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="U34">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="V34">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="W34">
-        <v>1.3</v>
+        <v>2.17</v>
       </c>
       <c r="X34">
-        <v>0.73</v>
+        <v>2.67</v>
       </c>
       <c r="Y34">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="Z34">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AA34">
-        <v>2.79</v>
+        <v>3.04</v>
       </c>
       <c r="AB34">
-        <v>2.05</v>
+        <v>2.39</v>
       </c>
       <c r="AC34">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD34">
+        <v>1.82</v>
+      </c>
+      <c r="AE34">
+        <v>1.14</v>
+      </c>
+      <c r="AF34">
+        <v>1.26</v>
+      </c>
+      <c r="AG34">
+        <v>1.49</v>
+      </c>
+      <c r="AH34">
         <v>1.95</v>
       </c>
-      <c r="AE34">
-        <v>1.24</v>
-      </c>
-      <c r="AF34">
-        <v>1.52</v>
-      </c>
-      <c r="AG34">
-        <v>1.8</v>
-      </c>
-      <c r="AH34">
-        <v>2.27</v>
-      </c>
       <c r="AI34">
-        <v>3.1</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="35" spans="1:35">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2">
         <v>45116</v>
@@ -4891,13 +4891,13 @@
         <v>220</v>
       </c>
       <c r="G35">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J35">
         <v>1.02</v>
@@ -4915,7 +4915,7 @@
         <v>1.9</v>
       </c>
       <c r="O35">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P35">
         <v>1.37</v>
@@ -4989,7 +4989,7 @@
         <v>71</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
         <v>124</v>
@@ -4998,67 +4998,67 @@
         <v>221</v>
       </c>
       <c r="G36">
-        <v>2.05</v>
+        <v>1.76</v>
       </c>
       <c r="H36">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="I36">
-        <v>3.75</v>
+        <v>3.98</v>
       </c>
       <c r="J36">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K36">
-        <v>8.1</v>
+        <v>10.75</v>
       </c>
       <c r="L36">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="M36">
-        <v>2.66</v>
+        <v>3.3</v>
       </c>
       <c r="N36">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O36">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="P36">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q36">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="R36">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S36">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="U36">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V36">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="W36">
-        <v>1.5</v>
+        <v>2.14</v>
       </c>
       <c r="X36">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="Y36">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="Z36">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="AA36">
-        <v>3.21</v>
+        <v>3.48</v>
       </c>
       <c r="AB36">
         <v>0</v>
@@ -5073,10 +5073,10 @@
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG36">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AH36">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>71</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
         <v>125</v>
@@ -5105,67 +5105,67 @@
         <v>222</v>
       </c>
       <c r="G37">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="H37">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I37">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="J37">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K37">
-        <v>10.75</v>
+        <v>8.1</v>
       </c>
       <c r="L37">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="M37">
-        <v>3.3</v>
+        <v>2.66</v>
       </c>
       <c r="N37">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="O37">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="P37">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q37">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="R37">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T37">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="U37">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="W37">
-        <v>2.14</v>
+        <v>1.5</v>
       </c>
       <c r="X37">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="Y37">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="Z37">
-        <v>1.63</v>
+        <v>1.24</v>
       </c>
       <c r="AA37">
-        <v>3.48</v>
+        <v>3.21</v>
       </c>
       <c r="AB37">
         <v>0</v>
@@ -5183,13 +5183,13 @@
         <v>0</v>
       </c>
       <c r="AG37">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AI37">
-        <v>0</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -5212,13 +5212,13 @@
         <v>223</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H38">
-        <v>3.5</v>
+        <v>3.29</v>
       </c>
       <c r="I38">
-        <v>3.6</v>
+        <v>2.84</v>
       </c>
       <c r="J38">
         <v>1.02</v>
@@ -5233,10 +5233,10 @@
         <v>5</v>
       </c>
       <c r="N38">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="O38">
-        <v>2.56</v>
+        <v>2.29</v>
       </c>
       <c r="P38">
         <v>1.25</v>
@@ -5310,7 +5310,7 @@
         <v>73</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
         <v>127</v>
@@ -5319,91 +5319,91 @@
         <v>224</v>
       </c>
       <c r="G39">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="I39">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="J39">
         <v>1.11</v>
       </c>
       <c r="K39">
-        <v>6.49</v>
+        <v>5.25</v>
       </c>
       <c r="L39">
         <v>1.52</v>
       </c>
       <c r="M39">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="N39">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="O39">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="P39">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Q39">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="R39">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="S39">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="T39">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U39">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="V39">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="W39">
-        <v>2.45</v>
+        <v>1.63</v>
       </c>
       <c r="X39">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="Y39">
+        <v>1.23</v>
+      </c>
+      <c r="Z39">
         <v>1.35</v>
       </c>
-      <c r="Z39">
-        <v>1.07</v>
-      </c>
       <c r="AA39">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="AB39">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD39">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AE39">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AF39">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AG39">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="AH39">
-        <v>3.42</v>
+        <v>0</v>
       </c>
       <c r="AI39">
-        <v>5.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:35">
@@ -5417,7 +5417,7 @@
         <v>73</v>
       </c>
       <c r="D40">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
         <v>128</v>
@@ -5426,91 +5426,91 @@
         <v>225</v>
       </c>
       <c r="G40">
-        <v>3.1</v>
+        <v>2.21</v>
       </c>
       <c r="H40">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="I40">
-        <v>2.6</v>
+        <v>3.21</v>
       </c>
       <c r="J40">
         <v>1.11</v>
       </c>
       <c r="K40">
-        <v>5.25</v>
+        <v>6.49</v>
       </c>
       <c r="L40">
         <v>1.52</v>
       </c>
       <c r="M40">
+        <v>2.36</v>
+      </c>
+      <c r="N40">
+        <v>2.5</v>
+      </c>
+      <c r="O40">
+        <v>1.47</v>
+      </c>
+      <c r="P40">
+        <v>1.57</v>
+      </c>
+      <c r="Q40">
+        <v>2.25</v>
+      </c>
+      <c r="R40">
+        <v>2.1</v>
+      </c>
+      <c r="S40">
+        <v>1.67</v>
+      </c>
+      <c r="T40">
+        <v>1.3</v>
+      </c>
+      <c r="U40">
+        <v>1.37</v>
+      </c>
+      <c r="V40">
+        <v>1.6</v>
+      </c>
+      <c r="W40">
+        <v>2.45</v>
+      </c>
+      <c r="X40">
+        <v>1.18</v>
+      </c>
+      <c r="Y40">
+        <v>1.35</v>
+      </c>
+      <c r="Z40">
+        <v>1.07</v>
+      </c>
+      <c r="AA40">
         <v>2.42</v>
       </c>
-      <c r="N40">
-        <v>2.65</v>
-      </c>
-      <c r="O40">
-        <v>1.45</v>
-      </c>
-      <c r="P40">
-        <v>1.67</v>
-      </c>
-      <c r="Q40">
-        <v>2.13</v>
-      </c>
-      <c r="R40">
-        <v>2.09</v>
-      </c>
-      <c r="S40">
-        <v>1.66</v>
-      </c>
-      <c r="T40">
-        <v>1.4</v>
-      </c>
-      <c r="U40">
-        <v>1.46</v>
-      </c>
-      <c r="V40">
-        <v>1.4</v>
-      </c>
-      <c r="W40">
-        <v>1.63</v>
-      </c>
-      <c r="X40">
-        <v>1.31</v>
-      </c>
-      <c r="Y40">
-        <v>1.23</v>
-      </c>
-      <c r="Z40">
-        <v>1.35</v>
-      </c>
-      <c r="AA40">
-        <v>2.58</v>
-      </c>
       <c r="AB40">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG40">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AI40">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="41" spans="1:35">
@@ -5622,7 +5622,7 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" s="2">
         <v>45116</v>
@@ -5640,13 +5640,13 @@
         <v>227</v>
       </c>
       <c r="G42">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="H42">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="I42">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J42">
         <v>1.12</v>
@@ -5655,10 +5655,10 @@
         <v>5.56</v>
       </c>
       <c r="L42">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M42">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="N42">
         <v>2.64</v>
@@ -5729,7 +5729,7 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2">
         <v>45116</v>
@@ -5747,13 +5747,13 @@
         <v>228</v>
       </c>
       <c r="G43">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H43">
         <v>3.4</v>
       </c>
       <c r="I43">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J43">
         <v>1.06</v>
@@ -5768,10 +5768,10 @@
         <v>2.98</v>
       </c>
       <c r="N43">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O43">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P43">
         <v>1.45</v>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="AG43">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH43">
         <v>0</v>
@@ -5854,13 +5854,13 @@
         <v>229</v>
       </c>
       <c r="G44">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="H44">
-        <v>3.4</v>
+        <v>3.09</v>
       </c>
       <c r="I44">
-        <v>3.3</v>
+        <v>3.04</v>
       </c>
       <c r="J44">
         <v>1.04</v>
@@ -5875,10 +5875,10 @@
         <v>3.77</v>
       </c>
       <c r="N44">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O44">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="P44">
         <v>1.33</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="45" spans="1:35">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2">
         <v>45116</v>
@@ -5961,13 +5961,13 @@
         <v>230</v>
       </c>
       <c r="G45">
-        <v>2.39</v>
+        <v>2.45</v>
       </c>
       <c r="H45">
-        <v>2.78</v>
+        <v>2.85</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J45">
         <v>1.11</v>
@@ -5979,7 +5979,7 @@
         <v>1.57</v>
       </c>
       <c r="M45">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N45">
         <v>2.55</v>
@@ -6050,7 +6050,7 @@
     </row>
     <row r="46" spans="1:35">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2">
         <v>45116</v>
@@ -6068,13 +6068,13 @@
         <v>231</v>
       </c>
       <c r="G46">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="H46">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="I46">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="J46">
         <v>1.02</v>
@@ -6089,10 +6089,10 @@
         <v>4.67</v>
       </c>
       <c r="N46">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="O46">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P46">
         <v>1.27</v>
@@ -6101,10 +6101,10 @@
         <v>3.5</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S46">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
         <v>1.07</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="AG46">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH46">
         <v>0</v>
@@ -6175,13 +6175,13 @@
         <v>232</v>
       </c>
       <c r="G47">
-        <v>3.53</v>
+        <v>3.32</v>
       </c>
       <c r="H47">
-        <v>3.13</v>
+        <v>2.95</v>
       </c>
       <c r="I47">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="J47">
         <v>1.07</v>
@@ -6196,10 +6196,10 @@
         <v>2.85</v>
       </c>
       <c r="N47">
-        <v>2.14</v>
+        <v>2.03</v>
       </c>
       <c r="O47">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="P47">
         <v>1.49</v>
@@ -6264,7 +6264,7 @@
     </row>
     <row r="48" spans="1:35">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2">
         <v>45116</v>
@@ -6282,13 +6282,13 @@
         <v>233</v>
       </c>
       <c r="G48">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="H48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I48">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J48">
         <v>1.01</v>
@@ -6303,10 +6303,10 @@
         <v>6.5</v>
       </c>
       <c r="N48">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O48">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P48">
         <v>1.21</v>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="AG48">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH48">
         <v>0</v>
@@ -6389,13 +6389,13 @@
         <v>234</v>
       </c>
       <c r="G49">
-        <v>3.4</v>
+        <v>3.23</v>
       </c>
       <c r="H49">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I49">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="J49">
         <v>1.06</v>
@@ -6410,10 +6410,10 @@
         <v>3.25</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O49">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="P49">
         <v>1.4</v>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="50" spans="1:35">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B50" s="2">
         <v>45116</v>
@@ -6496,13 +6496,13 @@
         <v>235</v>
       </c>
       <c r="G50">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="H50">
-        <v>2.93</v>
+        <v>2.88</v>
       </c>
       <c r="I50">
-        <v>3.85</v>
+        <v>4.75</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -6517,10 +6517,10 @@
         <v>2.4</v>
       </c>
       <c r="N50">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="O50">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="AG50">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH50">
         <v>0</v>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="51" spans="1:35">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B51" s="2">
         <v>45116</v>
@@ -6606,10 +6606,10 @@
         <v>1.65</v>
       </c>
       <c r="H51">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I51">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J51">
         <v>1.05</v>
@@ -6624,10 +6624,10 @@
         <v>3.25</v>
       </c>
       <c r="N51">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O51">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="P51">
         <v>1.4</v>
@@ -6636,10 +6636,10 @@
         <v>2.75</v>
       </c>
       <c r="R51">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S51">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T51">
         <v>1.18</v>
@@ -6681,10 +6681,10 @@
         <v>0</v>
       </c>
       <c r="AG51">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH51">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AI51">
         <v>0</v>
@@ -6817,13 +6817,13 @@
         <v>238</v>
       </c>
       <c r="G53">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="H53">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="I53">
-        <v>3.4</v>
+        <v>3.06</v>
       </c>
       <c r="J53">
         <v>1.1</v>
@@ -6838,10 +6838,10 @@
         <v>2.65</v>
       </c>
       <c r="N53">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="O53">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="P53">
         <v>1.53</v>
@@ -6906,7 +6906,7 @@
     </row>
     <row r="54" spans="1:35">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B54" s="2">
         <v>45116</v>
@@ -6924,37 +6924,37 @@
         <v>239</v>
       </c>
       <c r="G54">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H54">
-        <v>3.02</v>
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>3.13</v>
+        <v>2.9</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="N54">
         <v>2.2</v>
       </c>
       <c r="O54">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="R54">
         <v>1.89</v>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="55" spans="1:35">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B55" s="2">
         <v>45116</v>
@@ -7031,43 +7031,43 @@
         <v>240</v>
       </c>
       <c r="G55">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="H55">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="I55">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N55">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O55">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R55">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="S55">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="T55">
         <v>1.41</v>
@@ -7120,7 +7120,7 @@
     </row>
     <row r="56" spans="1:35">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B56" s="2">
         <v>45116</v>
@@ -7138,13 +7138,13 @@
         <v>241</v>
       </c>
       <c r="G56">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="H56">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I56">
-        <v>5.15</v>
+        <v>5.4</v>
       </c>
       <c r="J56">
         <v>1.04</v>
@@ -7159,10 +7159,10 @@
         <v>3.03</v>
       </c>
       <c r="N56">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="O56">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="P56">
         <v>1.44</v>
@@ -7352,13 +7352,13 @@
         <v>243</v>
       </c>
       <c r="G58">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="H58">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I58">
-        <v>2.79</v>
+        <v>2.85</v>
       </c>
       <c r="J58">
         <v>1.05</v>
@@ -7373,10 +7373,10 @@
         <v>3</v>
       </c>
       <c r="N58">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="O58">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="P58">
         <v>1.44</v>
@@ -7430,7 +7430,7 @@
         <v>0</v>
       </c>
       <c r="AG58">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH58">
         <v>0</v>
@@ -7441,7 +7441,7 @@
     </row>
     <row r="59" spans="1:35">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B59" s="2">
         <v>45116</v>
@@ -7459,52 +7459,52 @@
         <v>244</v>
       </c>
       <c r="G59">
-        <v>3.23</v>
+        <v>3.2</v>
       </c>
       <c r="H59">
-        <v>3.32</v>
+        <v>3.1</v>
       </c>
       <c r="I59">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="N59">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="O59">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="R59">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="S59">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V59">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W59">
         <v>1.4</v>
@@ -7548,7 +7548,7 @@
     </row>
     <row r="60" spans="1:35">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B60" s="2">
         <v>45116</v>
@@ -7566,13 +7566,13 @@
         <v>245</v>
       </c>
       <c r="G60">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="H60">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="I60">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="J60">
         <v>1.06</v>
@@ -7587,10 +7587,10 @@
         <v>3.2</v>
       </c>
       <c r="N60">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="O60">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="P60">
         <v>1.44</v>
@@ -7599,10 +7599,10 @@
         <v>2.63</v>
       </c>
       <c r="R60">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S60">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
         <v>1.23</v>
@@ -7629,13 +7629,13 @@
         <v>3.7</v>
       </c>
       <c r="AB60">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AC60">
         <v>8.5</v>
       </c>
       <c r="AD60">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="AE60">
         <v>1.12</v>
@@ -7655,7 +7655,7 @@
     </row>
     <row r="61" spans="1:35">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B61" s="2">
         <v>45116</v>
@@ -7673,52 +7673,52 @@
         <v>246</v>
       </c>
       <c r="G61">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H61">
-        <v>3.48</v>
+        <v>3.3</v>
       </c>
       <c r="I61">
-        <v>4.62</v>
+        <v>3.8</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="N61">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="O61">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R61">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="T61">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="U61">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V61">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="W61">
         <v>2.6</v>
@@ -7762,7 +7762,7 @@
     </row>
     <row r="62" spans="1:35">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B62" s="2">
         <v>45116</v>
@@ -7780,43 +7780,43 @@
         <v>247</v>
       </c>
       <c r="G62">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="H62">
-        <v>3.78</v>
+        <v>3.6</v>
       </c>
       <c r="I62">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N62">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O62">
         <v>1.65</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="R62">
-        <v>2.17</v>
+        <v>2.07</v>
       </c>
       <c r="S62">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="T62">
         <v>1.11</v>
@@ -7869,7 +7869,7 @@
     </row>
     <row r="63" spans="1:35">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B63" s="2">
         <v>45116</v>
@@ -7887,52 +7887,52 @@
         <v>248</v>
       </c>
       <c r="G63">
-        <v>16.25</v>
+        <v>19</v>
       </c>
       <c r="H63">
-        <v>6.05</v>
+        <v>8.5</v>
       </c>
       <c r="I63">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="N63">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="O63">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="R63">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="S63">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="W63">
         <v>0.8</v>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="AG63">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH63">
         <v>0</v>
@@ -7976,7 +7976,7 @@
     </row>
     <row r="64" spans="1:35">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B64" s="2">
         <v>45116</v>
@@ -7994,37 +7994,37 @@
         <v>249</v>
       </c>
       <c r="G64">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H64">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="N64">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O64">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="R64">
         <v>1.9</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="AG64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH64">
         <v>0</v>
@@ -8101,13 +8101,13 @@
         <v>250</v>
       </c>
       <c r="G65">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="H65">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I65">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="J65">
         <v>1.05</v>
@@ -8122,10 +8122,10 @@
         <v>4</v>
       </c>
       <c r="N65">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="O65">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="P65">
         <v>1.33</v>
@@ -8190,7 +8190,7 @@
     </row>
     <row r="66" spans="1:35">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B66" s="2">
         <v>45116</v>
@@ -8211,10 +8211,10 @@
         <v>1.83</v>
       </c>
       <c r="H66">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I66">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J66">
         <v>1.06</v>
@@ -8229,10 +8229,10 @@
         <v>3.1</v>
       </c>
       <c r="N66">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O66">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P66">
         <v>1.44</v>
@@ -8315,13 +8315,13 @@
         <v>252</v>
       </c>
       <c r="G67">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H67">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I67">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J67">
         <v>1.05</v>
@@ -8336,10 +8336,10 @@
         <v>2.85</v>
       </c>
       <c r="N67">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O67">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P67">
         <v>1.43</v>
@@ -8348,10 +8348,10 @@
         <v>2.6</v>
       </c>
       <c r="R67">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="T67">
         <v>1.67</v>
@@ -8443,10 +8443,10 @@
         <v>3</v>
       </c>
       <c r="N68">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="O68">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="P68">
         <v>1.42</v>
@@ -8500,13 +8500,13 @@
         <v>0</v>
       </c>
       <c r="AG68">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AH68">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AI68">
-        <v>0</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="69" spans="1:35">
@@ -8529,13 +8529,13 @@
         <v>254</v>
       </c>
       <c r="G69">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="H69">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I69">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J69">
         <v>1.11</v>
@@ -8544,16 +8544,16 @@
         <v>6</v>
       </c>
       <c r="L69">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M69">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N69">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="O69">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="P69">
         <v>1.54</v>
@@ -8592,13 +8592,13 @@
         <v>3.46</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AC69">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="AD69">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="AE69">
         <v>0</v>
@@ -8607,18 +8607,18 @@
         <v>0</v>
       </c>
       <c r="AG69">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AH69">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AI69">
-        <v>0</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="70" spans="1:35">
       <c r="A70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B70" s="2">
         <v>45116</v>
@@ -8636,13 +8636,13 @@
         <v>255</v>
       </c>
       <c r="G70">
-        <v>2.09</v>
+        <v>2.16</v>
       </c>
       <c r="H70">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I70">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J70">
         <v>1.05</v>
@@ -8657,10 +8657,10 @@
         <v>2.76</v>
       </c>
       <c r="N70">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="O70">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="P70">
         <v>1.5</v>
@@ -8743,13 +8743,13 @@
         <v>256</v>
       </c>
       <c r="G71">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="H71">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I71">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J71">
         <v>1.08</v>
@@ -8761,7 +8761,7 @@
         <v>1.53</v>
       </c>
       <c r="M71">
-        <v>2.34</v>
+        <v>2.25</v>
       </c>
       <c r="N71">
         <v>2.66</v>
@@ -8806,25 +8806,25 @@
         <v>3.34</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AC71">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD71">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="AE71">
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG71">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AH71">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AI71">
         <v>0</v>
@@ -8832,7 +8832,7 @@
     </row>
     <row r="72" spans="1:35">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B72" s="2">
         <v>45116</v>
@@ -8850,52 +8850,52 @@
         <v>257</v>
       </c>
       <c r="G72">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="H72">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I72">
-        <v>3.13</v>
+        <v>2.75</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="N72">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="O72">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="R72">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="S72">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U72">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="V72">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W72">
         <v>2.2</v>
@@ -8928,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="AG72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH72">
         <v>0</v>
@@ -8957,13 +8957,13 @@
         <v>258</v>
       </c>
       <c r="G73">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="H73">
         <v>3.3</v>
       </c>
       <c r="I73">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -8978,10 +8978,10 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>2.1</v>
+        <v>1.84</v>
       </c>
       <c r="O73">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -9046,7 +9046,7 @@
     </row>
     <row r="74" spans="1:35">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B74" s="2">
         <v>45116</v>
@@ -9064,52 +9064,52 @@
         <v>259</v>
       </c>
       <c r="G74">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H74">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I74">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="N74">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="O74">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="R74">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="T74">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U74">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="V74">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W74">
         <v>1.6</v>
@@ -9171,13 +9171,13 @@
         <v>260</v>
       </c>
       <c r="G75">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="H75">
-        <v>4.75</v>
+        <v>4.47</v>
       </c>
       <c r="I75">
-        <v>8</v>
+        <v>7.96</v>
       </c>
       <c r="J75">
         <v>1.05</v>
@@ -9192,10 +9192,10 @@
         <v>3</v>
       </c>
       <c r="N75">
-        <v>2.05</v>
+        <v>1.71</v>
       </c>
       <c r="O75">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P75">
         <v>1.42</v>
@@ -9385,13 +9385,13 @@
         <v>262</v>
       </c>
       <c r="G77">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H77">
-        <v>3.4</v>
+        <v>3.22</v>
       </c>
       <c r="I77">
-        <v>5.25</v>
+        <v>4.93</v>
       </c>
       <c r="J77">
         <v>1.08</v>
@@ -9406,7 +9406,7 @@
         <v>2.8</v>
       </c>
       <c r="N77">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O77">
         <v>1.57</v>
@@ -9492,13 +9492,13 @@
         <v>263</v>
       </c>
       <c r="G78">
-        <v>6.9</v>
+        <v>5</v>
       </c>
       <c r="H78">
-        <v>4.35</v>
+        <v>3.8</v>
       </c>
       <c r="I78">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="J78">
         <v>1.06</v>
@@ -9513,10 +9513,10 @@
         <v>3.4</v>
       </c>
       <c r="N78">
-        <v>1.61</v>
+        <v>1.96</v>
       </c>
       <c r="O78">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="P78">
         <v>1.4</v>
@@ -9706,10 +9706,10 @@
         <v>265</v>
       </c>
       <c r="G80">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="H80">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I80">
         <v>4.1</v>
@@ -9727,10 +9727,10 @@
         <v>3.3</v>
       </c>
       <c r="N80">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="O80">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="P80">
         <v>1.4</v>
@@ -9795,7 +9795,7 @@
     </row>
     <row r="81" spans="1:35">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B81" s="2">
         <v>45116</v>
@@ -9813,37 +9813,37 @@
         <v>266</v>
       </c>
       <c r="G81">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H81">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I81">
         <v>3.4</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="N81">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O81">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R81">
         <v>1.75</v>
@@ -9852,13 +9852,13 @@
         <v>2</v>
       </c>
       <c r="T81">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U81">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V81">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="W81">
         <v>2.43</v>
@@ -9885,24 +9885,24 @@
         <v>2.5</v>
       </c>
       <c r="AE81">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF81">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AG81">
         <v>2</v>
       </c>
       <c r="AH81">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AI81">
-        <v>0</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="82" spans="1:35">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B82" s="2">
         <v>45116</v>
@@ -9920,37 +9920,37 @@
         <v>267</v>
       </c>
       <c r="G82">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="H82">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="I82">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N82">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="O82">
         <v>1.65</v>
       </c>
       <c r="P82">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R82">
         <v>2.1</v>
@@ -9959,13 +9959,13 @@
         <v>1.67</v>
       </c>
       <c r="T82">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U82">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W82">
         <v>2</v>
@@ -9992,24 +9992,24 @@
         <v>3.25</v>
       </c>
       <c r="AE82">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF82">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AG82">
         <v>1.91</v>
       </c>
       <c r="AH82">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AI82">
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="83" spans="1:35">
       <c r="A83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B83" s="2">
         <v>45116</v>
@@ -10027,13 +10027,13 @@
         <v>268</v>
       </c>
       <c r="G83">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="H83">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J83">
         <v>1.1</v>
@@ -10048,10 +10048,10 @@
         <v>2.45</v>
       </c>
       <c r="N83">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O83">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="P83">
         <v>1.53</v>
@@ -10134,13 +10134,13 @@
         <v>269</v>
       </c>
       <c r="G84">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I84">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J84">
         <v>1.05</v>
@@ -10149,16 +10149,16 @@
         <v>7.2</v>
       </c>
       <c r="L84">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M84">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N84">
         <v>2.4</v>
       </c>
       <c r="O84">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P84">
         <v>1.54</v>
@@ -10197,25 +10197,25 @@
         <v>2.79</v>
       </c>
       <c r="AB84">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AC84">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AD84">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="AE84">
         <v>0</v>
       </c>
       <c r="AF84">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AG84">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AH84">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AI84">
         <v>0</v>
@@ -10241,13 +10241,13 @@
         <v>270</v>
       </c>
       <c r="G85">
-        <v>2.45</v>
+        <v>2.49</v>
       </c>
       <c r="H85">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="I85">
-        <v>2.83</v>
+        <v>2.8</v>
       </c>
       <c r="J85">
         <v>1.05</v>
@@ -10262,10 +10262,10 @@
         <v>3.23</v>
       </c>
       <c r="N85">
-        <v>2.05</v>
+        <v>2.13</v>
       </c>
       <c r="O85">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="P85">
         <v>1.42</v>
@@ -10322,7 +10322,7 @@
         <v>0</v>
       </c>
       <c r="AH85">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AI85">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>271</v>
       </c>
       <c r="G86">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="H86">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="I86">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J86">
         <v>1.14</v>
@@ -10366,7 +10366,7 @@
         <v>1.53</v>
       </c>
       <c r="M86">
-        <v>2.34</v>
+        <v>2.25</v>
       </c>
       <c r="N86">
         <v>2.66</v>
@@ -10411,13 +10411,13 @@
         <v>2.53</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AC86">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD86">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AE86">
         <v>0</v>
@@ -10426,13 +10426,13 @@
         <v>0</v>
       </c>
       <c r="AG86">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AH86">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AI86">
-        <v>0</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="87" spans="1:35">
@@ -10455,13 +10455,13 @@
         <v>272</v>
       </c>
       <c r="G87">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="H87">
-        <v>3.3</v>
+        <v>3.03</v>
       </c>
       <c r="I87">
-        <v>3.4</v>
+        <v>4.39</v>
       </c>
       <c r="J87">
         <v>1.03</v>
@@ -10476,10 +10476,10 @@
         <v>3.2</v>
       </c>
       <c r="N87">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O87">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P87">
         <v>1.44</v>
@@ -10562,13 +10562,13 @@
         <v>273</v>
       </c>
       <c r="G88">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H88">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="I88">
-        <v>7</v>
+        <v>7.51</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="O88">
         <v>1.9</v>
@@ -10990,52 +10990,52 @@
         <v>277</v>
       </c>
       <c r="G92">
-        <v>3.47</v>
+        <v>3.33</v>
       </c>
       <c r="H92">
-        <v>3.37</v>
+        <v>3.17</v>
       </c>
       <c r="I92">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="N92">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="O92">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="P92">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="R92">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="S92">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U92">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V92">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W92">
         <v>1.17</v>
@@ -11079,7 +11079,7 @@
     </row>
     <row r="93" spans="1:35">
       <c r="A93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B93" s="2">
         <v>45116</v>
@@ -11097,13 +11097,13 @@
         <v>278</v>
       </c>
       <c r="G93">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="H93">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J93">
         <v>1.06</v>
@@ -11121,7 +11121,7 @@
         <v>2.35</v>
       </c>
       <c r="O93">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="P93">
         <v>1.53</v>
@@ -11288,7 +11288,7 @@
         <v>2.75</v>
       </c>
       <c r="AI94">
-        <v>0</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="95" spans="1:35">
@@ -11418,13 +11418,13 @@
         <v>281</v>
       </c>
       <c r="G96">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="H96">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="I96">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="J96">
         <v>1.08</v>
@@ -11439,10 +11439,10 @@
         <v>2.69</v>
       </c>
       <c r="N96">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O96">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P96">
         <v>1.52</v>
@@ -11496,7 +11496,7 @@
         <v>0</v>
       </c>
       <c r="AG96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH96">
         <v>0</v>
@@ -11525,13 +11525,13 @@
         <v>282</v>
       </c>
       <c r="G97">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H97">
-        <v>3.4</v>
+        <v>3.11</v>
       </c>
       <c r="I97">
-        <v>4.35</v>
+        <v>3.52</v>
       </c>
       <c r="J97">
         <v>1.04</v>
@@ -11546,10 +11546,10 @@
         <v>3.7</v>
       </c>
       <c r="N97">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O97">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="P97">
         <v>1.35</v>
